--- a/10-pc/hw5/hw5.xlsx
+++ b/10-pc/hw5/hw5.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="HW5_1" sheetId="1" r:id="rId1"/>
     <sheet name="HW5_3" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="5" r:id="rId3"/>
+    <sheet name="withdamper" sheetId="4" r:id="rId4"/>
+    <sheet name="nodamper" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="80">
   <si>
     <t>η</t>
   </si>
@@ -103,6 +106,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">Period(sec) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bare frame</t>
+  </si>
+  <si>
+    <t>Bare frame with VE dampers</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mode</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio of Responses</t>
+  </si>
+  <si>
+    <t>Dis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4)/(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>(5)/(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6)/(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dis.
+Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vel.
+Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acc.
+Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Centro EW</t>
+  </si>
+  <si>
+    <t>El Centro EW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bare frame + VE</t>
+  </si>
+  <si>
+    <t>Bare frame + VE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>DriftX</t>
+  </si>
+  <si>
+    <t>DriftY</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Max Drift X</t>
+  </si>
+  <si>
+    <t>TCU068NS</t>
+  </si>
+  <si>
+    <t>Max Drift Y</t>
+  </si>
+  <si>
+    <t>TCU068EW</t>
+  </si>
+  <si>
+    <t>ELCENTRO</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>withdamper</t>
+  </si>
+  <si>
+    <t>nodamper</t>
+  </si>
+  <si>
+    <t>Floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Drift (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bare frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bare frame + VE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCU068 EW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCU068 NS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCU068 NS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mode</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mode </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>Shear area of the damper (m</t>
     </r>
@@ -144,89 +408,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Period(sec) </t>
+    <t>Floor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bare frame</t>
-  </si>
-  <si>
-    <t>Bare frame with VE dampers</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>st</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mode</t>
-    </r>
+    <t>Story Drift (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mode </t>
-    </r>
+    <t>Story Drift (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>rd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mode</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>RY</t>
+  </si>
+  <si>
+    <t>RZ</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -234,9 +455,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -264,6 +485,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,12 +545,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,13 +578,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,21 +587,49 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,59 +924,59 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>1.04084318755271E-4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>-6.9045948487021793E-5</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>-0.66336552242193303</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>8.4601287724068893E-5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>6.8569173802500997E-5</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>0.81049799178166904</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -734,22 +988,22 @@
       <c r="E8" s="6">
         <v>-7.2609018639506898E-5</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>-0.75607488726377703</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>7.8072276798088296E-5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>6.2623406036799398E-5</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>0.80212091417234899</v>
       </c>
     </row>
@@ -766,76 +1020,3098 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D32:J34"/>
+  <dimension ref="B5:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="26.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="13" width="9" style="2"/>
+    <col min="14" max="15" width="15.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="32" spans="4:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="D32" s="16" t="s">
+    <row r="5" spans="2:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="Q5" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="R5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.22550000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.2792</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.2641</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.22539999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="23">
+        <v>6.9280000000000001E-3</v>
+      </c>
+      <c r="O12" s="23">
+        <v>2.1670000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="21">
+        <v>2</v>
+      </c>
+      <c r="N13" s="23">
+        <v>1.0454E-2</v>
+      </c>
+      <c r="O13" s="23">
+        <v>2.728E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.367</v>
+      </c>
+      <c r="D14" s="3">
+        <v>58.36</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1157.0920000000001</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>16.303999999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <v>446.69099999999997</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.316</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="23">
+        <v>8.6610000000000003E-3</v>
+      </c>
+      <c r="O14" s="23">
+        <v>3.2369999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.5369999999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>39.561999999999998</v>
+      </c>
+      <c r="E15" s="3">
+        <v>812.00300000000004</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12.092000000000001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>390.67599999999999</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.317</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>58.36</v>
+      </c>
+      <c r="E16" s="3">
+        <v>486.762</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G16" s="3">
+        <v>16.303999999999998</v>
+      </c>
+      <c r="H16" s="3">
+        <v>346.66800000000001</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="22"/>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+      <c r="N22" s="23">
+        <v>6.5310000000000003E-3</v>
+      </c>
+      <c r="O22" s="23">
+        <v>2.7889999999999998E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="21">
+        <v>2</v>
+      </c>
+      <c r="N23" s="23">
+        <v>9.5490000000000002E-3</v>
+      </c>
+      <c r="O23" s="23">
+        <v>3.558E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="D24" s="3">
+        <v>42.055999999999997</v>
+      </c>
+      <c r="E24" s="3">
+        <v>652.93600000000004</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.391</v>
+      </c>
+      <c r="G24" s="3">
+        <v>21.67</v>
+      </c>
+      <c r="H24" s="3">
+        <v>490.12</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.751</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="23">
+        <v>7.8209999999999998E-3</v>
+      </c>
+      <c r="O24" s="23">
+        <v>4.2469999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="D25" s="3">
+        <v>29.481999999999999</v>
+      </c>
+      <c r="E25" s="3">
+        <v>506.23099999999999</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.054</v>
+      </c>
+      <c r="G25" s="3">
+        <v>16.044</v>
+      </c>
+      <c r="H25" s="3">
+        <v>345.017</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="D26" s="3">
+        <v>42.055999999999997</v>
+      </c>
+      <c r="E26" s="3">
+        <v>311.89400000000001</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G26" s="3">
+        <v>21.67</v>
+      </c>
+      <c r="H26" s="3">
+        <v>322.81299999999999</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O30" s="18"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="22"/>
+      <c r="M32" s="3">
+        <v>3</v>
+      </c>
+      <c r="N32" s="23">
+        <v>6.1599999999999997E-3</v>
+      </c>
+      <c r="O32" s="23">
+        <v>2.643E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="18"/>
+      <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="21">
+        <v>2</v>
+      </c>
+      <c r="N33" s="23">
+        <v>8.7069999999999995E-3</v>
+      </c>
+      <c r="O33" s="23">
+        <v>2.8630000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45.820999999999998</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1085.5360000000001</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.131</v>
+      </c>
+      <c r="G34" s="3">
+        <v>24.065999999999999</v>
+      </c>
+      <c r="H34" s="3">
+        <v>385.76799999999997</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34" s="23">
+        <v>6.9740000000000002E-3</v>
+      </c>
+      <c r="O34" s="23">
+        <v>3.1020000000000002E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="D35" s="3">
+        <v>34.927999999999997</v>
+      </c>
+      <c r="E35" s="3">
+        <v>793.44299999999998</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G35" s="3">
+        <v>17.687999999999999</v>
+      </c>
+      <c r="H35" s="3">
+        <v>320.21300000000002</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D36" s="3">
+        <v>45.820999999999998</v>
+      </c>
+      <c r="E36" s="3">
+        <v>546.69899999999996</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G36" s="3">
+        <v>24.065999999999999</v>
+      </c>
+      <c r="H36" s="3">
+        <v>301.90300000000002</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="38" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C14:H16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:O16 I14:L14">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:O26 L24">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:O36 L34">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:H27">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:O27">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:O14">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:K16">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:H26">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:K26">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:K26">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:H36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:K36">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:K36">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:O24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:O34">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:W7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>875</v>
+      </c>
+      <c r="C2">
+        <v>0.965055</v>
+      </c>
+      <c r="D2">
+        <v>0.965055</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3.7164779999999999</v>
+      </c>
+      <c r="I2">
+        <v>2.25</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>876</v>
+      </c>
+      <c r="C3">
+        <v>1.2084569999999999</v>
+      </c>
+      <c r="D3">
+        <v>1.2084569999999999</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.6656659999999999</v>
+      </c>
+      <c r="I3">
+        <v>2.25</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>877</v>
+      </c>
+      <c r="C4">
+        <v>1.2112909999999999</v>
+      </c>
+      <c r="D4">
+        <v>1.2112909999999999</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.6822609999999996</v>
+      </c>
+      <c r="I4">
+        <v>2.25</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>878</v>
+      </c>
+      <c r="C5">
+        <v>0.23744100000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.23744100000000001</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.286673</v>
+      </c>
+      <c r="I5">
+        <v>2.25</v>
+      </c>
+      <c r="J5">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="K5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>0.965055</v>
+      </c>
+      <c r="D6">
+        <v>0.965055</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.7164779999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7">
+        <v>1.2084569999999999</v>
+      </c>
+      <c r="D7">
+        <v>1.2084569999999999</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.6656659999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>1.2112909999999999</v>
+      </c>
+      <c r="D8">
+        <v>1.2112909999999999</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.6822609999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9">
+        <v>0.23744100000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.23744100000000001</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.286673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>3.6222439999999998</v>
+      </c>
+      <c r="D11">
+        <v>3.6222439999999998</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>14.351077999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>3.75</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5.5</v>
+      </c>
+      <c r="H2">
+        <v>6.1599999999999997E-3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>3.75</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>5.5</v>
+      </c>
+      <c r="R2">
+        <v>2.643E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0.28570000000000001</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0.22550000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0.2792</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0.2641</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0.22539999999999999</v>
+      <c r="E3">
+        <v>4.5</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5.5</v>
+      </c>
+      <c r="I3">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>4.5</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>5.5</v>
+      </c>
+      <c r="S3">
+        <v>1.1400000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>3.75</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5.5</v>
+      </c>
+      <c r="H4">
+        <v>6.5310000000000003E-3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>3.75</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>5.5</v>
+      </c>
+      <c r="R4">
+        <v>2.7889999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>4.5</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5.5</v>
+      </c>
+      <c r="I5">
+        <v>3.1E-4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>24</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>5.5</v>
+      </c>
+      <c r="S5">
+        <v>1.35E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>3.75</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5.5</v>
+      </c>
+      <c r="H6">
+        <v>6.9280000000000001E-3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>3.75</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>5.5</v>
+      </c>
+      <c r="R6">
+        <v>2.1670000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>4.5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5.5</v>
+      </c>
+      <c r="I7">
+        <v>4.5600000000000003E-4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7">
+        <v>24</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>5.5</v>
+      </c>
+      <c r="S7">
+        <v>1.17E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>3.75</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4.25</v>
+      </c>
+      <c r="H8">
+        <v>8.7069999999999995E-3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>3.75</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>4.25</v>
+      </c>
+      <c r="R8">
+        <v>2.8630000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>4.5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.25</v>
+      </c>
+      <c r="I9">
+        <v>6.8400000000000004E-4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9">
+        <v>24</v>
+      </c>
+      <c r="O9">
+        <v>4.5</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>4.25</v>
+      </c>
+      <c r="S9">
+        <v>1.5699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>3.75</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4.25</v>
+      </c>
+      <c r="H10">
+        <v>9.5490000000000002E-3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>3.75</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>4.25</v>
+      </c>
+      <c r="R10">
+        <v>3.558E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>4.5</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.25</v>
+      </c>
+      <c r="I11">
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>4.5</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>4.25</v>
+      </c>
+      <c r="S11">
+        <v>1.64E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>3.75</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4.25</v>
+      </c>
+      <c r="H12">
+        <v>1.0454E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>3.75</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>4.25</v>
+      </c>
+      <c r="R12">
+        <v>2.728E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>4.5</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.25</v>
+      </c>
+      <c r="I13">
+        <v>6.7699999999999998E-4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13">
+        <v>22</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>4.25</v>
+      </c>
+      <c r="S13">
+        <v>1.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>3.75</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>6.9740000000000002E-3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>3.1020000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>4.5</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>7.2900000000000005E-4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15">
+        <v>9</v>
+      </c>
+      <c r="O15">
+        <v>4.5</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>1.8599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>3.75</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>7.8209999999999998E-3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>3.75</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>4.2469999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>4.5</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4.7899999999999999E-4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>4.5</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>2.03E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>3.75</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>8.6610000000000003E-3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18">
+        <v>19</v>
+      </c>
+      <c r="O18">
+        <v>3.75</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>3.2369999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>4.5</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>6.9899999999999997E-4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19">
+        <v>9</v>
+      </c>
+      <c r="O19">
+        <v>4.5</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>1.93E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>3.75</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5.5</v>
+      </c>
+      <c r="H2">
+        <v>6.1599999999999997E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>4.5</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5.5</v>
+      </c>
+      <c r="I3">
+        <v>4.4700000000000002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>3.75</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5.5</v>
+      </c>
+      <c r="H4">
+        <v>6.5310000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>4.5</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5.5</v>
+      </c>
+      <c r="I5">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>3.75</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5.5</v>
+      </c>
+      <c r="H6">
+        <v>6.9280000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>4.5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5.5</v>
+      </c>
+      <c r="I7">
+        <v>4.5600000000000003E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>3.75</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4.25</v>
+      </c>
+      <c r="H8">
+        <v>8.7069999999999995E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>4.5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.25</v>
+      </c>
+      <c r="I9">
+        <v>6.8400000000000004E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>3.75</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4.25</v>
+      </c>
+      <c r="H10">
+        <v>9.5490000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>4.5</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.25</v>
+      </c>
+      <c r="I11">
+        <v>4.5399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>3.75</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4.25</v>
+      </c>
+      <c r="H12">
+        <v>1.0454E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>4.5</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.25</v>
+      </c>
+      <c r="I13">
+        <v>6.7699999999999998E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>3.75</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>6.9740000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>4.5</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>7.2900000000000005E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>3.75</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>7.8209999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>4.5</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4.7899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>3.75</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>8.6610000000000003E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>4.5</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>6.9899999999999997E-4</v>
       </c>
     </row>
   </sheetData>
